--- a/Model 1_29/uti output.xlsx
+++ b/Model 1_29/uti output.xlsx
@@ -151,40 +151,40 @@
     <t>{2014., 0.08442918036779931}</t>
   </si>
   <si>
-    <t>{{2000., 0.1352397554168358}, {2001., 0.14300897936192908}, {2002., 0.14520458734185968}, {2003., 0.14927041418626286}, {2004., 0.15290757768513405}, {2005., 0.14480389981391856}, {2006., 0.1388641547760225}, {2007., 0.13674627107773785}, {2008., 0.13378946292719965}, {2009., 0.11482533247473563}, {2010., 0.10563789193673911}, {2011., 0.1158385210793955}, {2012., 0.11716975437331512}, {2013., 0.11665802624745011}, {2014., 0.12254959982801872}, {2015., 0.1188764629623239}, {2016., 0.1133411236239475}, {2017., 0.1110033796928155}, {2018., 0.10870794176541831}, {2019., 0.10645428712824413}, {2020., 0.10424188931889936}, {2021., 0.10207021865586113}, {2022., 0.09993874275007525}, {2023., 0.09784692699846087}, {2024., 0.09579423505941567}, {2025., 0.0937801293104566}, {2026., 0.0918040712881513}, {2027., 0.08986552211052239}, {2028., 0.08796394288214184}, {2029., 0.08609354329019596}, {2030., 0.08425836227572286}, {2031., 0.08245877064078541}, {2032., 0.0806942278007326}, {2033., 0.0789641949586723}, {2034., 0.07726813541722373}, {2035., 0.07560551487466383}, {2036., 0.07397580170581489}, {2037., 0.0723784672280388}, {2038., 0.07081298595270195}, {2039., 0.06927883582248273}, {2040., 0.06777549843490495}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.17856727424068974}, {2001., 0.18663320143950576}, {2002., 0.18889468463192705}, {2003., 0.19306243525132621}, {2004., 0.19676931692218888}, {2005., 0.18848254941914663}, {2006., 0.18234266440276878}, {2007., 0.18013927263577892}, {2008., 0.1770502271820959}, {2009., 0.1568532339239473}, {2010., 0.1468028767705265}, {2011., 0.15795030999238555}, {2012., 0.15938849593889998}, {2013., 0.1588360913107593}, {2014., 0.1651637509168785}, {2015., 0.16122697045284115}, {2016., 0.15524220634196892}, {2017., 0.15269506952469758}, {2018., 0.1501822949890159}, {2019., 0.14770366276203478}, {2020., 0.14525894593095243}, {2021., 0.1428479109599617}, {2022., 0.14047031800295753}, {2023., 0.13812592121181708}, {2024., 0.13581446904003813}, {2025., 0.13353570454154942}, {2026., 0.13128936566451155}, {2027., 0.12907518553994232}, {2028., 0.12689289276502605}, {2029., 0.12474221168097123}, {2030., 0.12262286264529422}, {2031., 0.12053456229843133}, {2032., 0.1184770238245843}, {2033., 0.11644995720671773}, {2034., 0.11445306947564841}, {2035., 0.11248606495316928}, {2036., 0.11054864548916173}, {2037., 0.108640510692671}, {2038., 0.10676135815691909}, {2039., 0.10491088367824147}, {2040., 0.10308878146895122}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.22156496092228017}, {2001., 0.19265445933893066}, {2002., 0.1852433084444143}, {2003., 0.17232989439831517}, {2004., 0.16001645021003105}, {2005., 0.18079820246722822}, {2006., 0.19523568731017144}, {2007., 0.19686879405217092}, {2008., 0.19931162525815246}, {2009., 0.25912508968968817}, {2010., 0.2856643643391484}, {2011., 0.22491687696343549}, {2012., 0.20899070276786547}, {2013., 0.21053618968882418}, {2014., 0.19357215665604152}, {2015., 0.2039377541084588}, {2016., 0.22090732007622974}, {2017., 0.22860073844032802}, {2018., 0.2364807641757889}, {2019., 0.2445463086753751}, {2020., 0.25279586143340826}, {2021., 0.2612274754865451}, {2022., 0.2698387543953528}, {2023., 0.27862684096363777}, {2024., 0.2875884078888671}, {2025., 0.2967196505304975}, {2026., 0.306016281973611}, {2027., 0.3154735305527124}, {2028., 0.325086139984847}, {2029., 0.334848372242493}, {2030., 0.3447540132749389}, {2031., 0.3547963816622205}, {2032., 0.3649683402585533}, {2033., 0.37526231085269496}, {2034., 0.3856702918412183}, {2035., 0.39618387887780393}, {2036., 0.4067942884277853}, {2037., 0.4174923841227838}, {2038., 0.4282687057761456}, {2039., 0.43911350088645057}, {2040., 0.4500167584242644}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.3158683752382692}, {2001., 0.27143765783107016}, {2002., 0.25995622951367603}, {2003., 0.23989364923004575}, {2004., 0.22072521398874262}, {2005., 0.25305715140808316}, {2006., 0.2754293457422685}, {2007., 0.27795271488406753}, {2008., 0.28172399509604956}, {2009., 0.3723640341531699}, {2010., 0.41119093891169317}, {2011., 0.32097339569772027}, {2012., 0.29662496703551644}, {2013., 0.2989975445043395}, {2014., 0.27285726925668263}, {2015., 0.2888546289575938}, {2016., 0.3148654972484908}, {2017., 0.32657101494614044}, {2018., 0.33849670168977475}, {2019., 0.3506311391532716}, {2020., 0.3629618933924855}, {2021., 0.37547554976398045}, {2022., 0.38815775763217025}, {2023., 0.40099328475856355}, {2024., 0.41396608110502314}, {2025., 0.42705935161824216}, {2026., 0.4402556373993967}, {2027., 0.45353690450530454}, {2028., 0.4668846394797945}, {2029., 0.48027995058083256}, {2030., 0.493703673554016}, {2031., 0.5071364807098672}, {2032., 0.5205589919939867}, {2033., 0.5339518866975533}, {2034., 0.5472960144421841}, {2035., 0.5605725040884225}, {2036., 0.5737628692604319}, {2037., 0.5868491092494459}, {2038., 0.5998138041531782}, {2039., 0.6126402032245681}, {2040., 0.6253123055374231}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.002206131242310905}, {2001., 0.0015262225334016102}, {2002., 0.0013794268525873623}, {2003., 0.0011475929023989425}, {2004., 0.0010313864541492102}, {2005., 0.0016764680622795862}, {2006., 0.0026325607211143435}, {2007., 0.0034674999923673066}, {2008., 0.005106428142025228}, {2009., 0.025003876771954554}, {2010., 0.07070488796198293}, {2011., 0.04490263771427332}, {2012., 0.04991851401321833}, {2013., 0.05214534578881721}, {2014., 0.03169422499236478}, {2015., 0.04317779592551223}, {2016., 0.06928350630340675}, {2017., 0.0847156754336519}, {2018., 0.10320404067026867}, {2019., 0.12517549143453835}, {2020., 0.15103672867245155}, {2021., 0.18113462686077392}, {2022., 0.2157063686487214}, {2023., 0.25482317576160524}, {2024., 0.2983352393983402}, {2025., 0.34582903828237094}, {2026., 0.3966099714372357}, {2027., 0.44972132873397297}, {2028., 0.5040041734298057}, {2029., 0.5581927854881927}, {2030., 0.6110301609963397}, {2031., 0.6613818428195556}, {2032., 0.7083268873756661}, {2033., 0.7512118056694275}, {2034., 0.7896636989337635}, {2035., 0.8235683815501658}, {2036., 0.8530250754711155}, {2037., 0.8782905369778369}, {2038., 0.8997233474187952}, {2039., 0.9177353954423574}, {2040., 0.9327538713033142}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.004630396390087221}, {2001., 0.0029585375578276203}, {2002., 0.0026160954548942244}, {2003., 0.0020920791371636374}, {2004., 0.001837555098204359}, {2005., 0.0033164314795554326}, {2006., 0.0057391094133851985}, {2007., 0.008017156415151175}, {2008., 0.012809973584669784}, {2009., 0.0843183352658015}, {2010., 0.25722996023138}, {2011., 0.16154095757985656}, {2012., 0.18073083687738525}, {2013., 0.1891742262357778}, {2014., 0.11028134086564562}, {2015., 0.154894493410795}, {2016., 0.25218092204863846}, {2017., 0.3054030742737421}, {2018., 0.3643844956686402}, {2019., 0.42774213767339553}, {2020., 0.4935618254620827}, {2021., 0.5596054428050505}, {2022., 0.6236045156075694}, {2023., 0.6835622120397326}, {2024., 0.7379819664085855}, {2025., 0.7859731405966107}, {2026., 0.8272320874754571}, {2027., 0.8619345141423784}, {2028., 0.8905884764182831}, {2029., 0.9138897335393081}, {2030., 0.9326040829347729}, {2031., 0.9474849555116839}, {2032., 0.959223822497638}, {2033., 0.9684261033997493}, {2034., 0.97560445031324}, {2035., 0.9811825066048775}, {2036., 0.9855040879312171}, {2037., 0.9888444690680102}, {2038., 0.9914218060145485}, {2039., 0.993407653322392}, {2040., 0.9949361261631258}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.12254959982801872}, {2015., 0.12336913666469368}, {2016., 0.12336913666469368}, {2017., 0.12336913666469368}, {2018., 0.1260206820041545}, {2019., 0.13147016660018268}, {2020., 0.1371183308712573}, {2021., 0.14296920571114308}, {2022., 0.14902662089213128}, {2023., 0.15529417663596107}, {2024., 0.1585078122776534}, {2025., 0.1585078122776534}, {2026., 0.1585078122776534}, {2027., 0.1585078122776534}, {2028., 0.1585078122776534}, {2029., 0.1585078122776534}, {2030., 0.1585078122776534}, {2031., 0.1585078122776534}, {2032., 0.1585078122776534}, {2033., 0.1585078122776534}, {2034., 0.1585078122776534}, {2035., 0.1585078122776534}, {2036., 0.1585078122776534}, {2037., 0.1585078122776534}, {2038., 0.1585078122776534}, {2039., 0.1585078122776534}, {2040., 0.1585078122776534}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.1651637509168785}, {2015., 0.16603847256408547}, {2016., 0.16603847256408547}, {2017., 0.16603847256408547}, {2018., 0.1688596824120849}, {2019., 0.1746164772881878}, {2020., 0.18052690505575253}, {2021., 0.18659216308370055}, {2022., 0.19281325208813704}, {2023., 0.19919096311265785}, {2024., 0.2024387385637738}, {2025., 0.2024387385637738}, {2026., 0.2024387385637738}, {2027., 0.2024387385637738}, {2028., 0.2024387385637738}, {2029., 0.2024387385637738}, {2030., 0.2024387385637738}, {2031., 0.2024387385637738}, {2032., 0.2024387385637738}, {2033., 0.2024387385637738}, {2034., 0.2024387385637738}, {2035., 0.2024387385637738}, {2036., 0.2024387385637738}, {2037., 0.2024387385637738}, {2038., 0.2024387385637738}, {2039., 0.2024387385637738}, {2040., 0.2024387385637738}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.19357215665604152}, {2015., 0.19135037913629846}, {2016., 0.19135037913629846}, {2017., 0.19135037913629846}, {2018., 0.18437855107560286}, {2019., 0.17102801431144557}, {2020., 0.15845636175969816}, {2021., 0.14664533310791442}, {2022., 0.13557284757719626}, {2023., 0.1252137206153883}, {2024., 0.1202931143590704}, {2025., 0.1202931143590704}, {2026., 0.1202931143590704}, {2027., 0.1202931143590704}, {2028., 0.1202931143590704}, {2029., 0.1202931143590704}, {2030., 0.1202931143590704}, {2031., 0.1202931143590704}, {2032., 0.1202931143590704}, {2033., 0.1202931143590704}, {2034., 0.1202931143590704}, {2035., 0.1202931143590704}, {2036., 0.1202931143590704}, {2037., 0.1202931143590704}, {2038., 0.1202931143590704}, {2039., 0.1202931143590704}, {2040., 0.1202931143590704}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.27285726925668263}, {2015., 0.2694195008849081}, {2016., 0.2694195008849081}, {2017., 0.2694195008849081}, {2018., 0.25861474885188523}, {2019., 0.2378681310931979}, {2020., 0.21829579787494233}, {2021., 0.19991148917465906}, {2022., 0.1827135686695197}, {2023., 0.1666869133653343}, {2024., 0.1591048891519303}, {2025., 0.1591048891519303}, {2026., 0.1591048891519303}, {2027., 0.1591048891519303}, {2028., 0.1591048891519303}, {2029., 0.1591048891519303}, {2030., 0.1591048891519303}, {2031., 0.1591048891519303}, {2032., 0.1591048891519303}, {2033., 0.1591048891519303}, {2034., 0.1591048891519303}, {2035., 0.1591048891519303}, {2036., 0.1591048891519303}, {2037., 0.1591048891519303}, {2038., 0.1591048891519303}, {2039., 0.1591048891519303}, {2040., 0.1591048891519303}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.03169422499236478}, {2015., 0.029600180562581357}, {2016., 0.029600180562581357}, {2017., 0.029600180562581357}, {2018., 0.023768272395008394}, {2019., 0.015274325748810196}, {2020., 0.009785391493722257}, {2021., 0.006256411496663286}, {2022., 0.003994979751752403}, {2023., 0.0025488646451585196}, {2024., 0.002035500818090259}, {2025., 0.002035500818090259}, {2026., 0.002035500818090259}, {2027., 0.002035500818090259}, {2028., 0.002035500818090259}, {2029., 0.002035500818090259}, {2030., 0.002035500818090259}, {2031., 0.002035500818090259}, {2032., 0.002035500818090259}, {2033., 0.002035500818090259}, {2034., 0.002035500818090259}, {2035., 0.002035500818090259}, {2036., 0.002035500818090259}, {2037., 0.002035500818090259}, {2038., 0.002035500818090259}, {2039., 0.002035500818090259}, {2040., 0.002035500818090259}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.11028134086564562}, {2015., 0.10213147070534546}, {2016., 0.10213147070534546}, {2017., 0.10213147070534546}, {2018., 0.07955975856972648}, {2019., 0.0475386939063597}, {2020., 0.0280131745847185}, {2021., 0.016369521030064914}, {2022., 0.009518150371725952}, {2023., 0.0055182946197206584}, {2024., 0.004198863203094312}, {2025., 0.004198863203094312}, {2026., 0.004198863203094312}, {2027., 0.004198863203094312}, {2028., 0.004198863203094312}, {2029., 0.004198863203094312}, {2030., 0.004198863203094312}, {2031., 0.004198863203094312}, {2032., 0.004198863203094312}, {2033., 0.004198863203094312}, {2034., 0.004198863203094312}, {2035., 0.004198863203094312}, {2036., 0.004198863203094312}, {2037., 0.004198863203094312}, {2038., 0.004198863203094312}, {2039., 0.004198863203094312}, {2040., 0.004198863203094312}}</t>
+    <t>{{2000., 0.1371613289120659}, {2001., 0.14483915739888076}, {2002., 0.14698173730661462}, {2003., 0.15094661374215057}, {2004., 0.1544905392472117}, {2005., 0.14659080608569042}, {2006., 0.1407886307420893}, {2007., 0.13866920877622335}, {2008., 0.13570950821040184}, {2009., 0.11670477353912083}, {2010., 0.10748265871106867}, {2011., 0.1177211546607959}, {2012., 0.1190563985252614}, {2013., 0.11854315333215486}, {2014., 0.1244503696911138}, {2015., 0.12076794667296124}, {2016., 0.11521566685576694}, {2017., 0.11286966756375515}, {2018., 0.11056546771922805}, {2019., 0.10830256473536926}, {2020., 0.10608045201265456}, {2021., 0.1038986194545468}, {2022., 0.10175655396616236}, {2023., 0.09964369015610228}, {2024., 0.09756649276450245}, {2025., 0.0955280028231964}, {2026., 0.09352768965339368}, {2027., 0.09156502180549325}, {2028., 0.08963946747006588}, {2029., 0.08775049487200393}, {2030., 0.08589757264806454}, {2031., 0.08408017020806137}, {2032., 0.08229775807996922}, {2033., 0.0805498082392227}, {2034., 0.07883579442251244}, {2035., 0.07715519242638781}, {2036., 0.07550748039098616}, {2037., 0.07389213906922665}, {2038., 0.07230865208180698}, {2039., 0.07075650615834943}, {2040., 0.06923519136505514}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.1791497727520823}, {2001., 0.18720136241712212}, {2002., 0.18945853187466377}, {2003., 0.1936180072946504}, {2004., 0.19731718315215804}, {2005., 0.18904719215882113}, {2006., 0.18291865910829366}, {2007., 0.18071910809135794}, {2008., 0.17763523397032996}, {2009., 0.15746551023310226}, {2010., 0.14742411796180013}, {2011., 0.1585614133063061}, {2012., 0.15999800546106444}, {2013., 0.15944622049296803}, {2014., 0.16576623308631466}, {2015., 0.16183435096905463}, {2016., 0.15585613733536127}, {2017., 0.1533114497458383}, {2018., 0.15080088747275724}, {2019., 0.1483242350411179}, {2020., 0.14588127007452112}, {2021., 0.14347176360644606}, {2022., 0.14109548038749162}, {2023., 0.13875217918835536}, {2024., 0.13644161309833913}, {2025., 0.13416352981919563}, {2026., 0.13191767195413578}, {2027., 0.12970377729183147}, {2028., 0.12752157908527428}, {2029., 0.12537080632535305}, {2030., 0.12325118400902885}, {2031., 0.1211624334020083}, {2032., 0.11910427229581946}, {2033., 0.11707641525920735}, {2034., 0.11507857388378741}, {2035., 0.1131104570238978}, {2036., 0.11117177103060248}, {2037., 0.10926221997981667}, {2038., 0.10738150589452734}, {2039., 0.10552932896109225}, {2040., 0.10370538773961749}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.2231191588090372}, {2001., 0.19383082652697528}, {2002., 0.18632483805779695}, {2003., 0.17324888555157925}, {2004., 0.1607843208710721}, {2005., 0.18182336613934413}, {2006., 0.1964453160860709}, {2007., 0.19809952392000313}, {2008., 0.20057399722131267}, {2009., 0.2611798098356849}, {2010., 0.2880726492624718}, {2011., 0.22651546899609223}, {2012., 0.21037928816977514}, {2013., 0.21194503967290465}, {2014., 0.19476033633394918}, {2015., 0.20526029142225571}, {2016., 0.22245281860356433}, {2017., 0.23024821710305168}, {2018., 0.2382330914005087}, {2019., 0.2464062342239447}, {2020., 0.2547659989984986}, {2021., 0.26331028502270404}, {2022., 0.27203652431001096}, {2023., 0.2809416703034381}, {2024., 0.2900160104123076}, {2025., 0.29920508008590185}, {2026., 0.30855876771960844}, {2027., 0.3180721499119508}, {2028., 0.3277398163975303}, {2029., 0.3375558737085575}, {2030., 0.34751395173478494}, {2031., 0.35760721325951916}, {2032., 0.3678283665212603}, {2033., 0.37816968082011704}, {2034., 0.38862300515586196}, {2035., 0.3991797898509214}, {2036., 0.4098311110771475}, {2037., 0.4205676981704178}, {2038., 0.4313799635827404}, {2039., 0.44225803528805663}, {2040., 0.45319179142597676}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.31348293341934697}, {2001., 0.26936537578787634}, {2002., 0.25796983967662046}, {2003., 0.2380692300874025}, {2004., 0.21915439132301745}, {2005., 0.25112326801821755}, {2006., 0.27332765347784965}, {2007., 0.27583255421204417}, {2008., 0.27957641349417794}, {2009., 0.3696307424663163}, {2010., 0.4082557307198485}, {2011., 0.31855408580313854}, {2012., 0.2943712225087774}, {2013., 0.2967272266114933}, {2014., 0.2707745004934909}, {2015., 0.28665580395674045}, {2016., 0.31248676254467694}, {2017., 0.3241151010978525}, {2018., 0.33596470221398955}, {2019., 0.34802445095271545}, {2020., 0.3602822212105106}, {2021., 0.3727249081397402}, {2022., 0.385338470206952}, {2023., 0.3981079808194515}, {2024., 0.4110176892918119}, {2025., 0.4240510907629175}, {2026., 0.43719100451360304}, {2027., 0.45041965997894057}, {2028., 0.463718789602029}, {2029., 0.4770697275421462}, {2030., 0.49045351313307733}, {2031., 0.503850997890883}, {2032., 0.5172429547974622}, {2033., 0.530610188539097}, {2034., 0.5439336453592186}, {2035., 0.5571945211927368}, {2036., 0.5703743667849774}, {2037., 0.5834551885604403}, {2038., 0.5964195440934733}, {2039., 0.6092506311416629}, {2040., 0.6219323693299641}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0022162558228825684}, {2001., 0.0015317234179944845}, {2002., 0.0013840255684160975}, {2003., 0.0011508539721406049}, {2004., 0.0010340228048512558}, {2005., 0.0016829314136831708}, {2006., 0.00264588507853426}, {2007., 0.00348759886523123}, {2008., 0.005141284173189962}, {2009., 0.025276736898013564}, {2010., 0.07163280056977299}, {2011., 0.04545270563017331}, {2012., 0.05054101890062581}, {2013., 0.052800218499054793}, {2014., 0.03205790639243538}, {2015., 0.0437031281468655}, {2016., 0.07019036856923173}, {2017., 0.08585154431942299}, {2018., 0.10461395101610729}, {2019., 0.12690753813743294}, {2020., 0.15313941997946703}, {2021., 0.18365291499737627}, {2022., 0.2186763629990785}, {2023., 0.2582658805553199}, {2024., 0.3022501037636437}, {2025., 0.3501885474194207}, {2026., 0.40135674758221296}, {2027., 0.45476903660447354}, {2028., 0.5092428336315287}, {2029., 0.5634980194331338}, {2030., 0.6162747926475545}, {2031., 0.6664476183240652}, {2032., 0.7131141254336096}, {2033., 0.7556455060068727}, {2034., 0.7936956718210532}, {2035., 0.8271759011100364}, {2036., 0.856207125316083}, {2037., 0.8810628521761504}, {2038., 0.9021132740449954}, {2039., 0.9197772588045076}, {2040., 0.9344852086500717}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0044951883277786426}, {2001., 0.002870835497329937}, {2002., 0.0025382210810803814}, {2003., 0.002028625228718373}, {2004., 0.0017812232350111518}, {2005., 0.003218488792658447}, {2006., 0.005572796174878286}, {2007., 0.0077877112362133355}, {2008., 0.01245037935260312}, {2009., 0.08225289858624593}, {2010., 0.252322390168632}, {2011., 0.15799947336626985}, {2012., 0.17687532968806183}, {2013., 0.1851870028527356}, {2014., 0.10768067903742999}, {2015., 0.15146655900045847}, {2016., 0.24733309725809643}, {2017., 0.2999931943862793}, {2018., 0.35852455213525075}, {2019., 0.4215979048432727}, {2020., 0.4873375170621918}, {2021., 0.5535181362476693}, {2022., 0.617854658662962}, {2023., 0.6783084023853438}, {2024., 0.7333263577702793}, {2025., 0.7819594350919752}, {2026., 0.8238537258908236}, {2027., 0.8591483919456676}, {2028., 0.8883296076582029}, {2029., 0.9120837971686035}, {2030., 0.9311765426710676}, {2031., 0.946366739031705}, {2032., 0.9583542134738602}, {2033., 0.967753682813408}, {2034., 0.9750868375621365}, {2035., 0.9807854656627737}, {2036., 0.9852003757866588}, {2037., 0.9886126528494654}, {2038., 0.9912451692083987}, {2039., 0.9932732438173694}, {2040., 0.994833959242033}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.1244503696911138}, {2015., 0.12527177171860493}, {2016., 0.12527177171860493}, {2017., 0.12527177171860493}, {2018., 0.12792884546646602}, {2019., 0.1333873235429541}, {2020., 0.13904157076302945}, {2021., 0.1448003345363618}, {2022., 0.1507089723327365}, {2023., 0.15681450420627932}, {2024., 0.15994203600761828}, {2025., 0.15994203600761828}, {2026., 0.15994203600761828}, {2027., 0.15994203600761828}, {2028., 0.15994203600761828}, {2029., 0.15994203600761828}, {2030., 0.15994203600761828}, {2031., 0.15994203600761828}, {2032., 0.15994203600761828}, {2033., 0.15994203600761828}, {2034., 0.15994203600761828}, {2035., 0.15994203600761828}, {2036., 0.15994203600761828}, {2037., 0.15994203600761828}, {2038., 0.15994203600761828}, {2039., 0.15994203600761828}, {2040., 0.15994203600761828}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.16576623308631466}, {2015., 0.16663980458309538}, {2016., 0.16663980458309538}, {2017., 0.16663980458309538}, {2018., 0.1694571547833928}, {2019., 0.17520537970082753}, {2020., 0.18110607392624925}, {2021., 0.18716040117572402}, {2022., 0.1933693305678594}, {2023., 0.19973362387999385}, {2024., 0.2029742102482263}, {2025., 0.20297421024822632}, {2026., 0.20297421024822632}, {2027., 0.20297421024822632}, {2028., 0.20297421024822632}, {2029., 0.20297421024822632}, {2030., 0.20297421024822632}, {2031., 0.20297421024822632}, {2032., 0.20297421024822632}, {2033., 0.20297421024822632}, {2034., 0.20297421024822632}, {2035., 0.20297421024822632}, {2036., 0.20297421024822632}, {2037., 0.20297421024822632}, {2038., 0.20297421024822632}, {2039., 0.20297421024822632}, {2040., 0.20297421024822632}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.19476033633394918}, {2015., 0.1925099855168418}, {2016., 0.1925099855168418}, {2017., 0.1925099855168418}, {2018., 0.1854490832923886}, {2019., 0.1719308354134273}, {2020., 0.15920539589097477}, {2021., 0.14725433650154257}, {2022., 0.13605523521480792}, {2023., 0.12558242490285326}, {2024., 0.12060964471580984}, {2025., 0.12060964471580984}, {2026., 0.12060964471580984}, {2027., 0.12060964471580984}, {2028., 0.12060964471580984}, {2029., 0.12060964471580984}, {2030., 0.12060964471580984}, {2031., 0.12060964471580984}, {2032., 0.12060964471580984}, {2033., 0.12060964471580984}, {2034., 0.12060964471580984}, {2035., 0.12060964471580984}, {2036., 0.12060964471580984}, {2037., 0.12060964471580984}, {2038., 0.12060964471580984}, {2039., 0.12060964471580984}, {2040., 0.12060964471580984}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.2707745004934909}, {2015., 0.26736217828887215}, {2016., 0.26736217828887215}, {2017., 0.26736217828887215}, {2018., 0.2566385170602986}, {2019., 0.2360705951437636}, {2020., 0.2167569428321058}, {2021., 0.1986125895776434}, {2022., 0.18163485027620538}, {2023., 0.1658081238108821}, {2024., 0.1583184575689732}, {2025., 0.1583184575689732}, {2026., 0.1583184575689732}, {2027., 0.1583184575689732}, {2028., 0.1583184575689732}, {2029., 0.1583184575689732}, {2030., 0.1583184575689732}, {2031., 0.1583184575689732}, {2032., 0.1583184575689732}, {2033., 0.1583184575689732}, {2034., 0.1583184575689732}, {2035., 0.1583184575689732}, {2036., 0.1583184575689732}, {2037., 0.1583184575689732}, {2038., 0.1583184575689732}, {2039., 0.1583184575689732}, {2040., 0.1583184575689732}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.03205790639243538}, {2015., 0.029935108144550575}, {2016., 0.029935108144550575}, {2017., 0.029935108144550575}, {2018., 0.02402472842670212}, {2019., 0.015422292266907094}, {2020., 0.009868948189038915}, {2021., 0.006302482530948552}, {2022., 0.004019642936368859}, {2023., 0.002561545464581128}, {2024., 0.002044404401196834}, {2025., 0.002044404401196834}, {2026., 0.002044404401196834}, {2027., 0.002044404401196834}, {2028., 0.002044404401196834}, {2029., 0.002044404401196834}, {2030., 0.002044404401196834}, {2031., 0.002044404401196834}, {2032., 0.002044404401196834}, {2033., 0.002044404401196834}, {2034., 0.002044404401196834}, {2035., 0.002044404401196834}, {2036., 0.002044404401196834}, {2037., 0.002044404401196834}, {2038., 0.002044404401196834}, {2039., 0.002044404401196834}, {2040., 0.002044404401196834}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.10768067903742999}, {2015., 0.0996944465795221}, {2016., 0.0996944465795221}, {2017., 0.0996944465795221}, {2018., 0.07759688635191016}, {2019., 0.04630399802440603}, {2020., 0.027257829266778378}, {2021., 0.015915161781011104}, {2022., 0.009247591725300106}, {2023., 0.00535815449248592}, {2024., 0.004075841336262846}, {2025., 0.004075841336262846}, {2026., 0.004075841336262846}, {2027., 0.004075841336262846}, {2028., 0.004075841336262846}, {2029., 0.004075841336262846}, {2030., 0.004075841336262846}, {2031., 0.004075841336262846}, {2032., 0.004075841336262846}, {2033., 0.004075841336262846}, {2034., 0.004075841336262846}, {2035., 0.004075841336262846}, {2036., 0.004075841336262846}, {2037., 0.004075841336262846}, {2038., 0.004075841336262846}, {2039., 0.004075841336262846}, {2040., 0.004075841336262846}}</t>
   </si>
   <si>
     <t>{2000., 0.15667480572485915}</t>
@@ -790,22 +790,22 @@
     <t>{2040., 0.0029227569508795954}</t>
   </si>
   <si>
-    <t>{{2000., 0.1352397554168358}, {2001., 0.14300897936192908}, {2002., 0.14520458734185968}, {2003., 0.14927041418626286}, {2004., 0.15290757768513405}, {2005., 0.14480389981391856}, {2006., 0.1388641547760225}, {2007., 0.13674627107773785}, {2008., 0.13378946292719965}, {2009., 0.11482533247473563}, {2010., 0.10563789193673911}, {2011., 0.1158385210793955}, {2012., 0.11716975437331512}, {2013., 0.11665802624745011}, {2014., 0.12254959982801872}, {2015., 0.1188764629623239}, {2016., 0.1133411236239475}, {2017., 0.1110033796928155}, {2018., 0.10870794176541831}, {2019., 0.10757592435788536}, {2020., 0.10723140740750449}, {2021., 0.10688786164004184}, {2022., 0.10688786164004184}, {2023., 0.10688786164004184}, {2024., 0.10688786164004184}, {2025., 0.10688786164004184}, {2026., 0.10688786164004184}, {2027., 0.10688786164004184}, {2028., 0.10688786164004184}, {2029., 0.10688786164004184}, {2030., 0.10688786164004184}, {2031., 0.10688786164004184}, {2032., 0.10688786164004184}, {2033., 0.10688786164004184}, {2034., 0.10688786164004184}, {2035., 0.10688786164004184}, {2036., 0.10688786164004184}, {2037., 0.10688786164004184}, {2038., 0.10688786164004184}, {2039., 0.10688786164004184}, {2040., 0.10688786164004184}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.17856727424068974}, {2001., 0.18663320143950576}, {2002., 0.18889468463192705}, {2003., 0.19306243525132621}, {2004., 0.19676931692218888}, {2005., 0.18848254941914663}, {2006., 0.18234266440276878}, {2007., 0.18013927263577892}, {2008., 0.1770502271820959}, {2009., 0.1568532339239473}, {2010., 0.1468028767705265}, {2011., 0.15795030999238555}, {2012., 0.15938849593889998}, {2013., 0.1588360913107593}, {2014., 0.1651637509168785}, {2015., 0.16122697045284115}, {2016., 0.15524220634196892}, {2017., 0.15269506952469758}, {2018., 0.1501822949890159}, {2019., 0.1489387251100674}, {2020., 0.1485596773803191}, {2021., 0.1481814263608681}, {2022., 0.1481814263608681}, {2023., 0.1481814263608681}, {2024., 0.1481814263608681}, {2025., 0.1481814263608681}, {2026., 0.1481814263608681}, {2027., 0.1481814263608681}, {2028., 0.1481814263608681}, {2029., 0.1481814263608681}, {2030., 0.1481814263608681}, {2031., 0.1481814263608681}, {2032., 0.1481814263608681}, {2033., 0.1481814263608681}, {2034., 0.1481814263608681}, {2035., 0.1481814263608681}, {2036., 0.1481814263608681}, {2037., 0.1481814263608681}, {2038., 0.1481814263608681}, {2039., 0.1481814263608681}, {2040., 0.1481814263608681}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.22156496092228017}, {2001., 0.19265445933893066}, {2002., 0.1852433084444143}, {2003., 0.17232989439831517}, {2004., 0.16001645021003105}, {2005., 0.18079820246722822}, {2006., 0.19523568731017144}, {2007., 0.19686879405217092}, {2008., 0.19931162525815246}, {2009., 0.25912508968968817}, {2010., 0.2856643643391484}, {2011., 0.22491687696343549}, {2012., 0.20899070276786547}, {2013., 0.21053618968882418}, {2014., 0.19357215665604152}, {2015., 0.2039377541084588}, {2016., 0.22090732007622974}, {2017., 0.22860073844032802}, {2018., 0.2364807641757889}, {2019., 0.2445463086753751}, {2020., 0.25279586143340826}, {2021., 0.2612274754865451}, {2022., 0.2698387543953528}, {2023., 0.27862684096363777}, {2024., 0.2875884078888671}, {2025., 0.2967196505304975}, {2026., 0.306016281973611}, {2027., 0.3154735305527124}, {2028., 0.325086139984847}, {2029., 0.334848372242493}, {2030., 0.3447540132749389}, {2031., 0.3547963816622205}, {2032., 0.3649683402585533}, {2033., 0.37526231085269496}, {2034., 0.3856702918412183}, {2035., 0.3909144249826687}, {2036., 0.39336782981857454}, {2037., 0.39582662585751915}, {2038., 0.39582662585751915}, {2039., 0.39582662585751915}, {2040., 0.39582662585751915}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.3158683752382692}, {2001., 0.27143765783107016}, {2002., 0.25995622951367603}, {2003., 0.23989364923004575}, {2004., 0.22072521398874262}, {2005., 0.25305715140808316}, {2006., 0.2754293457422685}, {2007., 0.27795271488406753}, {2008., 0.28172399509604956}, {2009., 0.3723640341531699}, {2010., 0.41119093891169317}, {2011., 0.32097339569772027}, {2012., 0.29662496703551644}, {2013., 0.2989975445043395}, {2014., 0.27285726925668263}, {2015., 0.2888546289575938}, {2016., 0.3148654972484908}, {2017., 0.32657101494614044}, {2018., 0.33849670168977475}, {2019., 0.3506311391532716}, {2020., 0.3629618933924855}, {2021., 0.37547554976398045}, {2022., 0.38815775763217025}, {2023., 0.40099328475856355}, {2024., 0.41396608110502314}, {2025., 0.42705935161824216}, {2026., 0.4402556373993967}, {2027., 0.45353690450530454}, {2028., 0.4668846394797945}, {2029., 0.48027995058083256}, {2030., 0.493703673554016}, {2031., 0.5071364807098672}, {2032., 0.5205589919939867}, {2033., 0.5339518866975533}, {2034., 0.5472960144421841}, {2035., 0.5539438796519206}, {2036., 0.5570365141879442}, {2037., 0.5601247333439021}, {2038., 0.5601247333439021}, {2039., 0.5601247333439021}, {2040., 0.5601247333439021}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.002206131242310905}, {2001., 0.0015262225334016102}, {2002., 0.0013794268525873623}, {2003., 0.0011475929023989425}, {2004., 0.0010313864541492102}, {2005., 0.0016764680622795862}, {2006., 0.0026325607211143435}, {2007., 0.0034674999923673066}, {2008., 0.005106428142025228}, {2009., 0.025003876771954554}, {2010., 0.07070488796198293}, {2011., 0.04490263771427332}, {2012., 0.04991851401321833}, {2013., 0.05214534578881721}, {2014., 0.03169422499236478}, {2015., 0.04317779592551223}, {2016., 0.06928350630340675}, {2017., 0.0847156754336519}, {2018., 0.10320404067026867}, {2019., 0.12517549143453835}, {2020., 0.15103672867245155}, {2021., 0.18113462686077392}, {2022., 0.2157063686487214}, {2023., 0.25482317576160524}, {2024., 0.2760491063592699}, {2025., 0.2838680600460605}, {2026., 0.2918192096180978}, {2027., 0.2918192096180978}, {2028., 0.2918192096180978}, {2029., 0.2918192096180978}, {2030., 0.2918192096180978}, {2031., 0.2918192096180978}, {2032., 0.2918192096180978}, {2033., 0.2918192096180978}, {2034., 0.2918192096180978}, {2035., 0.2918192096180978}, {2036., 0.2918192096180978}, {2037., 0.2918192096180978}, {2038., 0.2918192096180978}, {2039., 0.2918192096180978}, {2040., 0.2918192096180978}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.004630396390087221}, {2001., 0.0029585375578276203}, {2002., 0.0026160954548942244}, {2003., 0.0020920791371636374}, {2004., 0.001837555098204359}, {2005., 0.0033164314795554326}, {2006., 0.0057391094133851985}, {2007., 0.008017156415151175}, {2008., 0.012809973584669784}, {2009., 0.0843183352658015}, {2010., 0.25722996023138}, {2011., 0.16154095757985656}, {2012., 0.18073083687738525}, {2013., 0.1891742262357778}, {2014., 0.11028134086564562}, {2015., 0.154894493410795}, {2016., 0.25218092204863846}, {2017., 0.3054030742737421}, {2018., 0.3643844956686402}, {2019., 0.42774213767339553}, {2020., 0.4935618254620827}, {2021., 0.5596054428050505}, {2022., 0.6236045156075694}, {2023., 0.6835622120397326}, {2024., 0.71153452537978}, {2025., 0.7211348556432565}, {2026., 0.7305366793963222}, {2027., 0.7305366793963222}, {2028., 0.7305366793963222}, {2029., 0.7305366793963222}, {2030., 0.7305366793963222}, {2031., 0.7305366793963222}, {2032., 0.7305366793963222}, {2033., 0.7305366793963222}, {2034., 0.7305366793963222}, {2035., 0.7305366793963222}, {2036., 0.7305366793963222}, {2037., 0.7305366793963222}, {2038., 0.7305366793963222}, {2039., 0.7305366793963222}, {2040., 0.7305366793963222}}</t>
+    <t>{{2000., 0.1371613289120659}, {2001., 0.14483915739888076}, {2002., 0.14698173730661462}, {2003., 0.15094661374215057}, {2004., 0.1544905392472117}, {2005., 0.14659080608569042}, {2006., 0.1407886307420893}, {2007., 0.13866920877622335}, {2008., 0.13570950821040184}, {2009., 0.11670477353912083}, {2010., 0.10748265871106867}, {2011., 0.1177211546607959}, {2012., 0.1190563985252614}, {2013., 0.11854315333215486}, {2014., 0.1244503696911138}, {2015., 0.12076794667296124}, {2016., 0.11521566685576694}, {2017., 0.11286966756375515}, {2018., 0.11056546771922805}, {2019., 0.10942888569426407}, {2020., 0.10908294723915342}, {2021., 0.10873796887234867}, {2022., 0.10873796887234867}, {2023., 0.10873796887234867}, {2024., 0.10873796887234867}, {2025., 0.10873796887234867}, {2026., 0.10873796887234867}, {2027., 0.10873796887234867}, {2028., 0.10873796887234867}, {2029., 0.10873796887234867}, {2030., 0.10873796887234867}, {2031., 0.10873796887234867}, {2032., 0.10873796887234867}, {2033., 0.10873796887234867}, {2034., 0.10873796887234867}, {2035., 0.10873796887234867}, {2036., 0.10873796887234867}, {2037., 0.10873796887234867}, {2038., 0.10873796887234867}, {2039., 0.10873796887234867}, {2040., 0.10873796887234867}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.1791497727520823}, {2001., 0.18720136241712212}, {2002., 0.18945853187466377}, {2003., 0.1936180072946504}, {2004., 0.19731718315215804}, {2005., 0.18904719215882113}, {2006., 0.18291865910829366}, {2007., 0.18071910809135794}, {2008., 0.17763523397032996}, {2009., 0.15746551023310226}, {2010., 0.14742411796180013}, {2011., 0.1585614133063061}, {2012., 0.15999800546106444}, {2013., 0.15944622049296803}, {2014., 0.16576623308631466}, {2015., 0.16183435096905463}, {2016., 0.15585613733536127}, {2017., 0.1533114497458383}, {2018., 0.15080088747275724}, {2019., 0.14955833626719775}, {2020., 0.14917958889575994}, {2021., 0.14880163285583387}, {2022., 0.14880163285583387}, {2023., 0.14880163285583387}, {2024., 0.14880163285583387}, {2025., 0.14880163285583387}, {2026., 0.14880163285583387}, {2027., 0.14880163285583387}, {2028., 0.14880163285583387}, {2029., 0.14880163285583387}, {2030., 0.14880163285583387}, {2031., 0.14880163285583387}, {2032., 0.14880163285583387}, {2033., 0.14880163285583387}, {2034., 0.14880163285583387}, {2035., 0.14880163285583387}, {2036., 0.14880163285583387}, {2037., 0.14880163285583387}, {2038., 0.14880163285583387}, {2039., 0.14880163285583387}, {2040., 0.14880163285583387}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.2231191588090372}, {2001., 0.19383082652697528}, {2002., 0.18632483805779695}, {2003., 0.17324888555157925}, {2004., 0.1607843208710721}, {2005., 0.18182336613934413}, {2006., 0.1964453160860709}, {2007., 0.19809952392000313}, {2008., 0.20057399722131267}, {2009., 0.2611798098356849}, {2010., 0.2880726492624718}, {2011., 0.22651546899609223}, {2012., 0.21037928816977514}, {2013., 0.21194503967290465}, {2014., 0.19476033633394918}, {2015., 0.20526029142225571}, {2016., 0.22245281860356433}, {2017., 0.23024821710305168}, {2018., 0.2382330914005087}, {2019., 0.2464062342239447}, {2020., 0.2547659989984986}, {2021., 0.26331028502270404}, {2022., 0.27203652431001096}, {2023., 0.2809416703034381}, {2024., 0.2900160104123076}, {2025., 0.29920508008590185}, {2026., 0.30855876771960844}, {2027., 0.3180721499119508}, {2028., 0.3277398163975303}, {2029., 0.3375558737085575}, {2030., 0.34751395173478494}, {2031., 0.35760721325951916}, {2032., 0.3678283665212603}, {2033., 0.37816968082011704}, {2034., 0.38862300515586196}, {2035., 0.39388901423539435}, {2036., 0.3963524287525843}, {2037., 0.3988211122559057}, {2038., 0.3988211122559057}, {2039., 0.3988211122559057}, {2040., 0.3988211122559057}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.31348293341934697}, {2001., 0.26936537578787634}, {2002., 0.25796983967662046}, {2003., 0.2380692300874025}, {2004., 0.21915439132301745}, {2005., 0.25112326801821755}, {2006., 0.27332765347784965}, {2007., 0.27583255421204417}, {2008., 0.27957641349417794}, {2009., 0.3696307424663163}, {2010., 0.4082557307198485}, {2011., 0.31855408580313854}, {2012., 0.2943712225087774}, {2013., 0.2967272266114933}, {2014., 0.2707745004934909}, {2015., 0.28665580395674045}, {2016., 0.31248676254467694}, {2017., 0.3241151010978525}, {2018., 0.33596470221398955}, {2019., 0.34802445095271545}, {2020., 0.3602822212105106}, {2021., 0.3727249081397402}, {2022., 0.385338470206952}, {2023., 0.3981079808194515}, {2024., 0.4110176892918119}, {2025., 0.4240510907629175}, {2026., 0.43719100451360304}, {2027., 0.45041965997894057}, {2028., 0.463718789602029}, {2029., 0.4770697275421462}, {2030., 0.49045351313307733}, {2031., 0.503850997890883}, {2032., 0.5172429547974622}, {2033., 0.530610188539097}, {2034., 0.5439336453592186}, {2035., 0.5505730684993065}, {2036., 0.5536622014138842}, {2037., 0.5567471954672404}, {2038., 0.5567471954672404}, {2039., 0.5567471954672404}, {2040., 0.5567471954672404}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0022162558228825684}, {2001., 0.0015317234179944845}, {2002., 0.0013840255684160975}, {2003., 0.0011508539721406049}, {2004., 0.0010340228048512558}, {2005., 0.0016829314136831708}, {2006., 0.00264588507853426}, {2007., 0.00348759886523123}, {2008., 0.005141284173189962}, {2009., 0.025276736898013564}, {2010., 0.07163280056977299}, {2011., 0.04545270563017331}, {2012., 0.05054101890062581}, {2013., 0.052800218499054793}, {2014., 0.03205790639243538}, {2015., 0.0437031281468655}, {2016., 0.07019036856923173}, {2017., 0.08585154431942299}, {2018., 0.10461395101610729}, {2019., 0.12690753813743294}, {2020., 0.15313941997946703}, {2021., 0.18365291499737627}, {2022., 0.2186763629990785}, {2023., 0.2582658805553199}, {2024., 0.2797295403976095}, {2025., 0.2876325484266434}, {2026., 0.29566718020426935}, {2027., 0.29566718020426935}, {2028., 0.29566718020426935}, {2029., 0.29566718020426935}, {2030., 0.29566718020426935}, {2031., 0.29566718020426935}, {2032., 0.29566718020426935}, {2033., 0.29566718020426935}, {2034., 0.29566718020426935}, {2035., 0.29566718020426935}, {2036., 0.29566718020426935}, {2037., 0.29566718020426935}, {2038., 0.29566718020426935}, {2039., 0.29566718020426935}, {2040., 0.29566718020426935}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0044951883277786426}, {2001., 0.002870835497329937}, {2002., 0.0025382210810803814}, {2003., 0.002028625228718373}, {2004., 0.0017812232350111518}, {2005., 0.003218488792658447}, {2006., 0.005572796174878286}, {2007., 0.0077877112362133355}, {2008., 0.01245037935260312}, {2009., 0.08225289858624593}, {2010., 0.252322390168632}, {2011., 0.15799947336626985}, {2012., 0.17687532968806183}, {2013., 0.1851870028527356}, {2014., 0.10768067903742999}, {2015., 0.15146655900045847}, {2016., 0.24733309725809643}, {2017., 0.2999931943862793}, {2018., 0.35852455213525075}, {2019., 0.4215979048432727}, {2020., 0.4873375170621918}, {2021., 0.5535181362476693}, {2022., 0.617854658662962}, {2023., 0.6783084023853438}, {2024., 0.7065707927351399}, {2025., 0.716279184944677}, {2026., 0.7257910226790303}, {2027., 0.7257910226790303}, {2028., 0.7257910226790303}, {2029., 0.7257910226790303}, {2030., 0.7257910226790303}, {2031., 0.7257910226790303}, {2032., 0.7257910226790303}, {2033., 0.7257910226790303}, {2034., 0.7257910226790303}, {2035., 0.7257910226790303}, {2036., 0.7257910226790303}, {2037., 0.7257910226790303}, {2038., 0.7257910226790303}, {2039., 0.7257910226790303}, {2040., 0.7257910226790303}}</t>
   </si>
   <si>
     <t>{2019., 0.12773087601782793}</t>
